--- a/medicine/Soins infirmiers et profession infirmière/1727_en_santé_et_médecine/1727_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1727_en_santé_et_médecine/1727_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1727_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1727_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1727 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1727_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1727_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mai : début de l'affaire du cimetière de Saint-Médard à Paris. La rumeur de miracles attire une foule de plus en plus importante, à la recherche de guérisons. Des phénomènes d'hystérie ont bientôt lieu, dans de telles proportions que l'ordre public est troublé.
-18 novembre : un tremblement de terre fait 77 000 victimes à Tabriz en Iran[1].
+18 novembre : un tremblement de terre fait 77 000 victimes à Tabriz en Iran.
 Sans date
-Le café est introduit au Brésil par la Guyane[2].</t>
+Le café est introduit au Brésil par la Guyane.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1727_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1727_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>16 février : Nikolaus Joseph von Jacquin (mort en 1817), médecin et botaniste néerlandais.
-29 avril : Nicolas-François Rougnon (mort en 1799), médecin français qui décrit en 1768 l'angine de poitrine[3].
+29 avril : Nicolas-François Rougnon (mort en 1799), médecin français qui décrit en 1768 l'angine de poitrine.
 4 juin : Jean-Louis Bagot (mort en 1794), chirurgien de marine, maire de Saint-Brieuc de 1774 à 1790 et député à l'Assemblée législative en 1791.
 18 juin : Charles-Augustin Vandermonde (mort en 1762), médecin français, théoricien de l'hygiénisme et de l'eugénisme, et l'un des pères du journalisme médical.
 18 novembre : Philibert Commerson (mort en 1773), médecin, explorateur et un naturaliste français.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1727_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1727_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>18 juin : Jean-Nicolas de La Hire (né en 1685), médecin et botaniste français.
 2 octobre : Johann Conrad Brunner (né en 1653), médecin suisse.
